--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4DD46-F3CF-4279-A1AD-D873C98D0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D62D00-FDE7-481E-9296-2F06924A695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9732" yWindow="0" windowWidth="13404" windowHeight="12336" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
-  <si>
-    <t>DesarrolloSoftware</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -89,7 +86,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>SeguimientoYControl</t>
+    <t>Desarrollo Software</t>
   </si>
   <si>
     <t>Infografías</t>
@@ -98,29 +95,58 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>SocializaciónGerencia</t>
-  </si>
-  <si>
-    <t>ImplementaciónLastPlanner</t>
-  </si>
-  <si>
-    <t>ImplementaciónGrillaLP</t>
-  </si>
-  <si>
     <t>1.1.3.</t>
   </si>
   <si>
     <t>1.1.</t>
+  </si>
+  <si>
+    <t>Seguimiento Y Control</t>
+  </si>
+  <si>
+    <t>Implementación Last Planner</t>
+  </si>
+  <si>
+    <t>Implementación Grilla LP</t>
+  </si>
+  <si>
+    <t>Presentación socialización mejoras Gerencia</t>
+  </si>
+  <si>
+    <t>Socialización Gerencia</t>
+  </si>
+  <si>
+    <t>1.1.1.1.</t>
+  </si>
+  <si>
+    <t>1.1.1.</t>
+  </si>
+  <si>
+    <t>Pptx</t>
+  </si>
+  <si>
+    <t>https://grupomarval-my.sharepoint.com/personal/cpulgarin_marval_com_co/Documents/Datos%20adjuntos/PropuestaMejoraIngenieria.pptx?web=1</t>
+  </si>
+  <si>
+    <t>Propuesta de mejoras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,16 +175,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -259,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H17" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H17" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H18" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H18" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -592,43 +623,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -640,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -651,7 +683,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -660,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -671,19 +703,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -691,30 +723,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -723,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -731,19 +767,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -751,7 +787,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -760,28 +796,30 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -789,28 +827,36 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -875,10 +921,23 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{28DFFF1F-6CFB-452B-9E12-7A5A55C55747}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D62D00-FDE7-481E-9296-2F06924A695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36920B-701E-41D5-81A4-C6C51B34BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9732" yWindow="0" windowWidth="13404" windowHeight="12336" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -74,27 +74,12 @@
     <t>Carpeta</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Desarrollo Software</t>
   </si>
   <si>
     <t>Infografías</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>1.1.3.</t>
   </si>
   <si>
@@ -129,6 +114,24 @@
   </si>
   <si>
     <t>Propuesta de mejoras</t>
+  </si>
+  <si>
+    <t>1.1.2.</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>1.</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,10 +686,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -703,16 +706,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -723,40 +726,40 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -767,16 +770,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -787,10 +790,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -807,16 +810,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -826,15 +829,15 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -844,15 +847,15 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3</v>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36920B-701E-41D5-81A4-C6C51B34BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64978523-ED25-43BC-8097-D2AFA05352F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -667,8 +667,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64978523-ED25-43BC-8097-D2AFA05352F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E19B79-E3BF-430B-8F69-D9177B379499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>1.</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/03.%20Desarrollos/01.%20Analytics%202.0/08.%20Presentaciones/09.%20Activaci%C3%B3n%20Grilla.pptx?web=1</t>
+  </si>
+  <si>
+    <t>Socialización e implementación de avances por grilla</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/05.%20Seguimiento%20proyectos/04.%20Acompa%C3%B1amiento%20a%20proyectos/Presentaci%C3%B3n%20capacitaciones.pptx?web=1</t>
+  </si>
+  <si>
+    <t>Presentación implementación Last Planner System</t>
+  </si>
+  <si>
+    <t>Presentación implementación métodologia Last Planner System</t>
+  </si>
+  <si>
+    <t>Presentación implementación funcionalidad grilla Last Planner System</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.3.1.</t>
   </si>
 </sst>
 </file>
@@ -293,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H18" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H18" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H20" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H20" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -626,17 +650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="122.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -770,36 +794,40 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -810,34 +838,40 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -848,14 +882,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -865,21 +901,37 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -934,13 +986,35 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{28DFFF1F-6CFB-452B-9E12-7A5A55C55747}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{0BEA8249-A74A-49EA-8EC8-96F5029FC733}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{69B2A7D3-90B8-4A1C-BF30-866D63FDCE26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E19B79-E3BF-430B-8F69-D9177B379499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -113,9 +113,6 @@
     <t>https://grupomarval-my.sharepoint.com/personal/cpulgarin_marval_com_co/Documents/Datos%20adjuntos/PropuestaMejoraIngenieria.pptx?web=1</t>
   </si>
   <si>
-    <t>Propuesta de mejoras</t>
-  </si>
-  <si>
     <t>1.1.2.</t>
   </si>
   <si>
@@ -156,6 +153,36 @@
   </si>
   <si>
     <t>1.1.3.1.</t>
+  </si>
+  <si>
+    <t>Propuesta de mejoras resultado de reuniones con gerencia y directores técnicos</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>Planeación Lean</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>2.2.</t>
+  </si>
+  <si>
+    <t>2.2.1.</t>
+  </si>
+  <si>
+    <t>Excel de informe de Auditoria</t>
+  </si>
+  <si>
+    <t>Xlsx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PvlOcqy-B7uOcPeKvaGO18cssIEnb6UIXeNBRuVQpiE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Archivo de registro de auditorias de seguimiento</t>
   </si>
 </sst>
 </file>
@@ -317,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H20" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H20" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H23" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -650,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +719,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
@@ -713,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -765,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -774,7 +801,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -794,25 +821,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -838,7 +865,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -847,25 +874,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -882,10 +909,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -902,7 +929,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -920,14 +947,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -937,31 +966,63 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1006,15 +1067,46 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{28DFFF1F-6CFB-452B-9E12-7A5A55C55747}"/>
     <hyperlink ref="G9" r:id="rId2" xr:uid="{0BEA8249-A74A-49EA-8EC8-96F5029FC733}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{69B2A7D3-90B8-4A1C-BF30-866D63FDCE26}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{6C869BAB-40B9-46FB-B35A-559A43244661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB30E302-0D6E-43A2-A294-0DB7F1E22B0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -183,6 +183,51 @@
   </si>
   <si>
     <t>Archivo de registro de auditorias de seguimiento</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>Tablero Seguimiento</t>
+  </si>
+  <si>
+    <t>3.1.1.</t>
+  </si>
+  <si>
+    <t>3.1.2.</t>
+  </si>
+  <si>
+    <t>Código respaldo</t>
+  </si>
+  <si>
+    <t>Bigquery</t>
+  </si>
+  <si>
+    <t>GitHub Access</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/:f:/r/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/3.%20Codigo%20Respaldo?csf=1&amp;web=1&amp;e=jQjk10</t>
+  </si>
+  <si>
+    <t>Código respaldo de sitio de seguimiento</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1</t>
+  </si>
+  <si>
+    <t>Modelo de datos: restricciones, compromisos y responsables ( se hace necesario tables: compromisos, proyectos, responsables, restricciones, de carpeta de Modelo BigQuery GC)</t>
+  </si>
+  <si>
+    <t>https://github.com/bautistapulgarin/Responsables-streamlit/tree/main</t>
+  </si>
+  <si>
+    <t>APP.py, data y requeriments</t>
   </si>
 </sst>
 </file>
@@ -680,18 +725,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="155" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -717,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -735,7 +780,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,7 +800,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -775,7 +820,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -799,7 +844,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -819,7 +864,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -843,7 +888,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -863,7 +908,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -887,7 +932,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -907,7 +952,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -927,7 +972,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -945,7 +990,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -965,7 +1010,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -985,7 +1030,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1009,7 +1054,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1027,47 +1072,99 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1077,7 +1174,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1087,7 +1184,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1103,10 +1200,332 @@
     <hyperlink ref="G9" r:id="rId2" xr:uid="{0BEA8249-A74A-49EA-8EC8-96F5029FC733}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{69B2A7D3-90B8-4A1C-BF30-866D63FDCE26}"/>
     <hyperlink ref="G15" r:id="rId4" xr:uid="{6C869BAB-40B9-46FB-B35A-559A43244661}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
+    <hyperlink ref="G19" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
+    <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
+    <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+    <xsd:import namespace="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fb8c78eb-ebef-4413-842f-7ac598663b88" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a8dbfbe9-9083-4def-ae69-f7b207d082e2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="98ef58cf-375e-4e6b-8b8c-d3296d60f80a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB30E302-0D6E-43A2-A294-0DB7F1E22B0F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D0F6C8-9C9F-4C2C-8DD0-C06A99AD20EF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>APP.py, data y requeriments</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Entregas y trámite</t>
+  </si>
+  <si>
+    <t>4.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url </t>
+  </si>
+  <si>
+    <t>Enlace Zoho permalink  "Avance de entregas"</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2403793000018042241/72f498ac7974ce7ef70f46e19c1b4a33</t>
+  </si>
+  <si>
+    <t>Enlace Zoho - Avance de entregas</t>
   </si>
 </sst>
 </file>
@@ -724,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1165,23 +1186,43 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1203,15 +1244,36 @@
     <hyperlink ref="G18" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
     <hyperlink ref="G19" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
     <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
+    <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1472,27 +1534,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1509,23 +1576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D0F6C8-9C9F-4C2C-8DD0-C06A99AD20EF}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2A62E9E-EC11-4AE6-9D7B-B6C252356BCC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Capacitaciones</t>
   </si>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1196,9 @@
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1254,26 +1256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1534,32 +1516,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1576,4 +1553,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2A62E9E-EC11-4AE6-9D7B-B6C252356BCC}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71585E28-56AE-418A-B4D7-9A10D842D7A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,155 +36,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID_Padre</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Metodología</t>
+  </si>
+  <si>
+    <t>Carpeta</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
   <si>
     <t>Capacitaciones</t>
   </si>
   <si>
+    <t>1.1.1.</t>
+  </si>
+  <si>
+    <t>Socialización Gerencia</t>
+  </si>
+  <si>
+    <t>1.1.1.1.</t>
+  </si>
+  <si>
+    <t>Presentación socialización mejoras Gerencia</t>
+  </si>
+  <si>
+    <t>Pptx</t>
+  </si>
+  <si>
+    <t>Propuesta de mejoras resultado de reuniones con gerencia y directores técnicos</t>
+  </si>
+  <si>
+    <t>https://grupomarval-my.sharepoint.com/personal/cpulgarin_marval_com_co/Documents/Datos%20adjuntos/PropuestaMejoraIngenieria.pptx?web=1</t>
+  </si>
+  <si>
+    <t>1.1.2.</t>
+  </si>
+  <si>
+    <t>Implementación Last Planner</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>Presentación implementación métodologia Last Planner System</t>
+  </si>
+  <si>
+    <t>Presentación implementación Last Planner System</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/05.%20Seguimiento%20proyectos/04.%20Acompa%C3%B1amiento%20a%20proyectos/Presentaci%C3%B3n%20capacitaciones.pptx?web=1</t>
+  </si>
+  <si>
+    <t>1.1.3.</t>
+  </si>
+  <si>
+    <t>Implementación Grilla LP</t>
+  </si>
+  <si>
+    <t>1.1.3.1.</t>
+  </si>
+  <si>
+    <t>Presentación implementación funcionalidad grilla Last Planner System</t>
+  </si>
+  <si>
+    <t>Socialización e implementación de avances por grilla</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/03.%20Desarrollos/01.%20Analytics%202.0/08.%20Presentaciones/09.%20Activaci%C3%B3n%20Grilla.pptx?web=1</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
     <t>Manuales</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID_Padre</t>
-  </si>
-  <si>
-    <t>Nivel</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Metodología</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>Infografías</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Seguimiento Y Control</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>Planeación Lean</t>
+  </si>
+  <si>
+    <t>2.2.</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>2.2.1.</t>
+  </si>
+  <si>
+    <t>Excel de informe de Auditoria</t>
+  </si>
+  <si>
+    <t>Xlsx</t>
+  </si>
+  <si>
+    <t>Archivo de registro de auditorias de seguimiento</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PvlOcqy-B7uOcPeKvaGO18cssIEnb6UIXeNBRuVQpiE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>3.</t>
   </si>
   <si>
     <t>Desarrollo Software</t>
   </si>
   <si>
-    <t>Infografías</t>
-  </si>
-  <si>
-    <t>1.1.3.</t>
-  </si>
-  <si>
-    <t>1.1.</t>
-  </si>
-  <si>
-    <t>Seguimiento Y Control</t>
-  </si>
-  <si>
-    <t>Implementación Last Planner</t>
-  </si>
-  <si>
-    <t>Implementación Grilla LP</t>
-  </si>
-  <si>
-    <t>Presentación socialización mejoras Gerencia</t>
-  </si>
-  <si>
-    <t>Socialización Gerencia</t>
-  </si>
-  <si>
-    <t>1.1.1.1.</t>
-  </si>
-  <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
-    <t>Pptx</t>
-  </si>
-  <si>
-    <t>https://grupomarval-my.sharepoint.com/personal/cpulgarin_marval_com_co/Documents/Datos%20adjuntos/PropuestaMejoraIngenieria.pptx?web=1</t>
-  </si>
-  <si>
-    <t>1.1.2.</t>
-  </si>
-  <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>1.3.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/03.%20Desarrollos/01.%20Analytics%202.0/08.%20Presentaciones/09.%20Activaci%C3%B3n%20Grilla.pptx?web=1</t>
-  </si>
-  <si>
-    <t>Socialización e implementación de avances por grilla</t>
-  </si>
-  <si>
-    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/05.%20Seguimiento%20proyectos/04.%20Acompa%C3%B1amiento%20a%20proyectos/Presentaci%C3%B3n%20capacitaciones.pptx?web=1</t>
-  </si>
-  <si>
-    <t>Presentación implementación Last Planner System</t>
-  </si>
-  <si>
-    <t>Presentación implementación métodologia Last Planner System</t>
-  </si>
-  <si>
-    <t>Presentación implementación funcionalidad grilla Last Planner System</t>
-  </si>
-  <si>
-    <t>1.1.2.1</t>
-  </si>
-  <si>
-    <t>1.1.3.1.</t>
-  </si>
-  <si>
-    <t>Propuesta de mejoras resultado de reuniones con gerencia y directores técnicos</t>
-  </si>
-  <si>
-    <t>2.1.</t>
-  </si>
-  <si>
-    <t>Planeación Lean</t>
-  </si>
-  <si>
-    <t>Auditoria</t>
-  </si>
-  <si>
-    <t>2.2.</t>
-  </si>
-  <si>
-    <t>2.2.1.</t>
-  </si>
-  <si>
-    <t>Excel de informe de Auditoria</t>
-  </si>
-  <si>
-    <t>Xlsx</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1PvlOcqy-B7uOcPeKvaGO18cssIEnb6UIXeNBRuVQpiE/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Archivo de registro de auditorias de seguimiento</t>
-  </si>
-  <si>
     <t>3.1.</t>
   </si>
   <si>
@@ -194,42 +194,42 @@
     <t>3.1.1.</t>
   </si>
   <si>
+    <t>Código respaldo</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Código respaldo de sitio de seguimiento</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/:f:/r/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/3.%20Codigo%20Respaldo?csf=1&amp;web=1&amp;e=jQjk10</t>
+  </si>
+  <si>
     <t>3.1.2.</t>
   </si>
   <si>
-    <t>Código respaldo</t>
-  </si>
-  <si>
     <t>Bigquery</t>
   </si>
   <si>
+    <t>Modelo de datos: restricciones, compromisos y responsables ( se hace necesario tables: compromisos, proyectos, responsables, restricciones, de carpeta de Modelo BigQuery GC)</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
     <t>GitHub Access</t>
   </si>
   <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://grupomarval.sharepoint.com/:f:/r/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/3.%20Codigo%20Respaldo?csf=1&amp;web=1&amp;e=jQjk10</t>
-  </si>
-  <si>
-    <t>Código respaldo de sitio de seguimiento</t>
-  </si>
-  <si>
-    <t>https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1</t>
-  </si>
-  <si>
-    <t>Modelo de datos: restricciones, compromisos y responsables ( se hace necesario tables: compromisos, proyectos, responsables, restricciones, de carpeta de Modelo BigQuery GC)</t>
+    <t>APP.py, data y requeriments</t>
   </si>
   <si>
     <t>https://github.com/bautistapulgarin/Responsables-streamlit/tree/main</t>
   </si>
   <si>
-    <t>APP.py, data y requeriments</t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
@@ -239,6 +239,9 @@
     <t>4.1.</t>
   </si>
   <si>
+    <t>Enlace Zoho - Avance de entregas</t>
+  </si>
+  <si>
     <t xml:space="preserve">url </t>
   </si>
   <si>
@@ -248,7 +251,28 @@
     <t>https://analytics.zoho.com/open-view/2403793000018042241/72f498ac7974ce7ef70f46e19c1b4a33</t>
   </si>
   <si>
-    <t>Enlace Zoho - Avance de entregas</t>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Analitica</t>
+  </si>
+  <si>
+    <t>5.1.</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1hh8VbYpxsLAxDkjfKF0hKWw8zxOlNrOC?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colab limpieza de Bodega de tiempos con cargue desde local de la carpeta de ETL </t>
+  </si>
+  <si>
+    <t>5.1.1.</t>
+  </si>
+  <si>
+    <t>Bodega de Tiempos</t>
   </si>
 </sst>
 </file>
@@ -410,8 +434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H25" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H25" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -743,59 +767,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="155" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -803,19 +827,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -823,19 +847,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -843,43 +867,43 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -887,43 +911,43 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -931,22 +955,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
@@ -955,19 +979,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -975,19 +999,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -995,17 +1019,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1013,19 +1037,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1033,19 +1057,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1053,41 +1077,41 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1098,7 +1122,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1107,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1124,22 +1148,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1148,22 +1172,22 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -1172,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -1197,7 +1221,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1214,28 +1238,80 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1247,15 +1323,27 @@
     <hyperlink ref="G19" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
     <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
     <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1516,7 +1604,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1525,18 +1613,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1555,27 +1643,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71585E28-56AE-418A-B4D7-9A10D842D7A9}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AFBC74-8D1B-4634-B1FC-6FD57B7ED606}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,8 +1273,8 @@
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1">
-        <v>5</v>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1333,17 +1333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1604,6 +1593,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1614,17 +1614,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1643,6 +1632,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
   <ds:schemaRefs>

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AFBC74-8D1B-4634-B1FC-6FD57B7ED606}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B161A80-00F6-4FB0-8EFD-DA2644F9DC92}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -266,13 +266,34 @@
     <t>https://colab.research.google.com/drive/1hh8VbYpxsLAxDkjfKF0hKWw8zxOlNrOC?usp=sharing</t>
   </si>
   <si>
-    <t xml:space="preserve">Colab limpieza de Bodega de tiempos con cargue desde local de la carpeta de ETL </t>
-  </si>
-  <si>
     <t>5.1.1.</t>
   </si>
   <si>
     <t>Bodega de Tiempos</t>
+  </si>
+  <si>
+    <t>5.2.</t>
+  </si>
+  <si>
+    <t>5.1.2.</t>
+  </si>
+  <si>
+    <t>Programaciones por capitulo</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1XhnifKohqfhBAwTACpzS7d6D4qcx_sl0#scrollTo=3ZOFGD83yd0f</t>
+  </si>
+  <si>
+    <t>Finalizado: Colab de vetificación de incidencia en cierre de capitulos de workplanner ( se revisar por programación, se puede ampliar a bodega de tiempos)</t>
+  </si>
+  <si>
+    <t>En proceso: Colab limpieza de Bodega de tiempos con cargue desde local de la carpeta de ETL y integración con nombres de proyectos</t>
+  </si>
+  <si>
+    <t>Modelo de Datos</t>
+  </si>
+  <si>
+    <t>Se plantea modelo de datos bajo trabajo en Bigquery y Colab</t>
   </si>
 </sst>
 </file>
@@ -434,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H25" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H25" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H27" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H27" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -767,21 +788,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="155" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,7 +846,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -845,7 +866,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -865,7 +886,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -889,7 +910,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,7 +930,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -933,7 +954,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -953,7 +974,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -977,7 +998,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -997,7 +1018,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1017,7 +1038,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1035,7 +1056,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1076,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1075,7 +1096,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1120,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1138,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1137,7 +1158,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1161,7 +1182,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1185,7 +1206,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1209,7 +1230,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1227,7 +1248,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1272,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1269,7 +1290,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -1289,9 +1310,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -1300,18 +1321,64 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1324,10 +1391,11 @@
     <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
     <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
     <hyperlink ref="G25" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
+    <hyperlink ref="G26" r:id="rId10" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1594,6 +1662,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
@@ -1602,15 +1679,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1633,6 +1701,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1641,12 +1717,4 @@
     <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B161A80-00F6-4FB0-8EFD-DA2644F9DC92}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632EE6CD-6FC6-41B0-9A01-BBCC19AB92A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>Se plantea modelo de datos bajo trabajo en Bigquery y Colab</t>
+  </si>
+  <si>
+    <t>5.2.1.</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Modelo Bigquery</t>
+  </si>
+  <si>
+    <t>Relacionamiento de dataset con SQL</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m4!1m3!3m2!1smodelomarval!2sproyectos</t>
   </si>
 </sst>
 </file>
@@ -455,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H27" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H27" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H29" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H29" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -788,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,6 +1395,40 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{28DFFF1F-6CFB-452B-9E12-7A5A55C55747}"/>
@@ -1392,15 +1441,36 @@
     <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
     <hyperlink ref="G25" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
     <hyperlink ref="G26" r:id="rId10" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
+    <hyperlink ref="G28" r:id="rId11" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1661,27 +1731,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1698,23 +1767,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632EE6CD-6FC6-41B0-9A01-BBCC19AB92A0}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7D0FB2-76C6-47CD-B03D-ABCA77A76353}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m4!1m3!3m2!1smodelomarval!2sproyectos</t>
+  </si>
+  <si>
+    <t>Recurso: Bodega de tiempos</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>historico de bodega de tiempos para limpieza</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/:f:/r/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/0.%20ETL%20Colab/13.0.1.%20Historico%20Bodegas%20de%20tiempo?csf=1&amp;web=1&amp;e=y0SGaf</t>
   </si>
 </sst>
 </file>
@@ -470,8 +482,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H29" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H29" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H30" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H30" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -803,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +826,7 @@
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="155" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="254.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1350,84 +1362,104 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1440,17 +1472,27 @@
     <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
     <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
     <hyperlink ref="G25" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
-    <hyperlink ref="G26" r:id="rId10" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
-    <hyperlink ref="G28" r:id="rId11" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
+    <hyperlink ref="G27" r:id="rId10" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
+    <hyperlink ref="G29" r:id="rId11" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
+    <hyperlink ref="G26" r:id="rId12" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
@@ -1459,15 +1501,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1732,20 +1765,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
     <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7D0FB2-76C6-47CD-B03D-ABCA77A76353}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33FB80D-63FB-4454-816C-979D706333AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>https://grupomarval.sharepoint.com/:f:/r/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/0.%20ETL%20Colab/13.0.1.%20Historico%20Bodegas%20de%20tiempo?csf=1&amp;web=1&amp;e=y0SGaf</t>
+  </si>
+  <si>
+    <t>5.1.1.1.</t>
   </si>
 </sst>
 </file>
@@ -817,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,8 +1365,12 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
@@ -1493,17 +1500,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1764,6 +1760,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
   <ds:schemaRefs>
@@ -1773,17 +1780,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1800,4 +1796,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33FB80D-63FB-4454-816C-979D706333AC}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC490757-DA8F-4486-BE1E-1242DEE0109B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -269,15 +269,9 @@
     <t>5.1.1.</t>
   </si>
   <si>
-    <t>Bodega de Tiempos</t>
-  </si>
-  <si>
     <t>5.2.</t>
   </si>
   <si>
-    <t>5.1.2.</t>
-  </si>
-  <si>
     <t>Programaciones por capitulo</t>
   </si>
   <si>
@@ -324,6 +318,27 @@
   </si>
   <si>
     <t>5.1.1.1.</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Bodega de tiempos</t>
+  </si>
+  <si>
+    <t>Proceso: Bodega de Tiempos</t>
+  </si>
+  <si>
+    <t>Informes</t>
+  </si>
+  <si>
+    <t>5.3.</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.3.1.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,12 +395,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H30" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H30" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H32" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H32" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -818,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,76 +1369,73 @@
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>+A26</f>
+        <v>5.1.1.</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
@@ -1423,50 +1444,92 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1478,10 +1541,10 @@
     <hyperlink ref="G19" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
     <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
     <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
-    <hyperlink ref="G27" r:id="rId10" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
-    <hyperlink ref="G29" r:id="rId11" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
-    <hyperlink ref="G26" r:id="rId12" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
+    <hyperlink ref="G27" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
+    <hyperlink ref="G29" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1491,15 +1554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1760,6 +1814,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1772,14 +1835,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1798,6 +1853,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
   <ds:schemaRefs>

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC490757-DA8F-4486-BE1E-1242DEE0109B}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2899FD3-4940-43C9-AC32-550F3DF68C92}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>5.2.1.</t>
-  </si>
-  <si>
-    <t>5.2</t>
   </si>
   <si>
     <t>Modelo Bigquery</t>
@@ -362,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,15 +386,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H32" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H32" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H31" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H31" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -842,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,13 +1357,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1389,13 +1377,13 @@
         <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>53</v>
@@ -1410,7 +1398,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>+A26</f>
@@ -1420,22 +1408,22 @@
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
@@ -1444,19 +1432,21 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -1476,7 +1466,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1498,38 +1488,28 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1815,15 +1795,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
@@ -1832,6 +1803,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1854,14 +1834,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1870,4 +1842,12 @@
     <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2899FD3-4940-43C9-AC32-550F3DF68C92}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B428B0CE-9DD4-49F6-96B1-3FFEF1D0DE2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -317,9 +317,6 @@
     <t>5.1.1.1.</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
     <t>Bodega de tiempos</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
   </si>
   <si>
     <t>5.3.</t>
-  </si>
-  <si>
-    <t>5.3</t>
   </si>
   <si>
     <t>5.3.1.</t>
@@ -833,7 +827,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,13 +1351,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1383,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>53</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
@@ -1432,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1443,10 +1437,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -1534,6 +1528,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1794,27 +1808,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1831,23 +1844,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B428B0CE-9DD4-49F6-96B1-3FFEF1D0DE2C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,17 +1537,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1808,6 +1797,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
   <ds:schemaRefs>
@@ -1817,17 +1817,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1844,4 +1833,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B428B0CE-9DD4-49F6-96B1-3FFEF1D0DE2C}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343773FC-23CA-46A7-B057-4AB7472AE501}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>5.3.1.</t>
+  </si>
+  <si>
+    <t>5.1.1.2.</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,13 +1371,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>94</v>
@@ -1392,11 +1395,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f>+A26</f>
-        <v>5.1.1.</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
@@ -1528,15 +1530,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1797,6 +1790,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1809,14 +1811,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1835,6 +1829,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
   <ds:schemaRefs>

--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343773FC-23CA-46A7-B057-4AB7472AE501}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539DF99A-B4BF-4E31-BC56-A1C5BCF42844}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,7 +1377,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>94</v>
@@ -1398,7 +1398,7 @@
         <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
@@ -1530,6 +1530,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1790,27 +1810,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1827,23 +1846,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539DF99A-B4BF-4E31-BC56-A1C5BCF42844}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E04CA73-48B3-4009-9C68-C852491D21A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -333,6 +333,27 @@
   </si>
   <si>
     <t>5.1.1.2.</t>
+  </si>
+  <si>
+    <t>Registro asistencia Capacitaciones y Seguimientos</t>
+  </si>
+  <si>
+    <t>Formulario de asistencia</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Formulario de regristo de asistencia durante capacitaciones y ejercicios de seguimiento de proyectos</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=ruyy8CShsk-ezUgjoSOcEF5r9KyA86dEsQa9DwPMXbFUMVRZQkNJSkVOQVpQMExCMTU4RUJLWEUxUy4u</t>
+  </si>
+  <si>
+    <t>2.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.1.1.</t>
   </si>
 </sst>
 </file>
@@ -494,8 +515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H31" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H31" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H33" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H33" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -827,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1117,58 +1138,60 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1179,75 +1202,69 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -1256,71 +1273,77 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1331,36 +1354,38 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1371,99 +1396,95 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
@@ -1472,84 +1493,109 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{28DFFF1F-6CFB-452B-9E12-7A5A55C55747}"/>
     <hyperlink ref="G9" r:id="rId2" xr:uid="{0BEA8249-A74A-49EA-8EC8-96F5029FC733}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{69B2A7D3-90B8-4A1C-BF30-866D63FDCE26}"/>
-    <hyperlink ref="G15" r:id="rId4" xr:uid="{6C869BAB-40B9-46FB-B35A-559A43244661}"/>
-    <hyperlink ref="G18" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
-    <hyperlink ref="G19" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
-    <hyperlink ref="G20" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
-    <hyperlink ref="G22" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
-    <hyperlink ref="G26" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
-    <hyperlink ref="G31" r:id="rId10" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
-    <hyperlink ref="G27" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
-    <hyperlink ref="G29" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{6C869BAB-40B9-46FB-B35A-559A43244661}"/>
+    <hyperlink ref="G20" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
+    <hyperlink ref="G21" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
+    <hyperlink ref="G22" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
+    <hyperlink ref="G28" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
+    <hyperlink ref="G33" r:id="rId10" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
+    <hyperlink ref="G29" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
+    <hyperlink ref="G31" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{54A8AECD-CF71-4D7C-9958-1AACAC5E3379}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1810,26 +1856,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1846,4 +1893,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E04CA73-48B3-4009-9C68-C852491D21A6}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39139527-FD42-4017-A18D-113756AF0265}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -354,6 +354,27 @@
   </si>
   <si>
     <t>2.2.1.1.</t>
+  </si>
+  <si>
+    <t>5.4.</t>
+  </si>
+  <si>
+    <t>Bitacora</t>
+  </si>
+  <si>
+    <t>Organización de planes de trabajo</t>
+  </si>
+  <si>
+    <t>5.4.1.</t>
+  </si>
+  <si>
+    <t>Enlace bitacora</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/13.%20Cloud%20Data/3.%20Codigo%20Respaldo/13.3.3.%20Bitacora%2010122025.docx?web=1</t>
+  </si>
+  <si>
+    <t>Enlace bitacora de trabajo</t>
   </si>
 </sst>
 </file>
@@ -515,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H33" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H33" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H35" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H35" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -848,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,6 +1592,52 @@
         <v>87</v>
       </c>
       <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1587,15 +1654,36 @@
     <hyperlink ref="G29" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
     <hyperlink ref="G31" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
     <hyperlink ref="G14" r:id="rId13" xr:uid="{54A8AECD-CF71-4D7C-9958-1AACAC5E3379}"/>
+    <hyperlink ref="G35" r:id="rId14" xr:uid="{01716D3A-426D-4812-81DA-3CDF4471CA2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1856,27 +1944,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1893,23 +1980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39139527-FD42-4017-A18D-113756AF0265}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE3DD6A-C453-4136-84AD-5265AEE21320}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -375,6 +375,33 @@
   </si>
   <si>
     <t>Enlace bitacora de trabajo</t>
+  </si>
+  <si>
+    <t>2.3.</t>
+  </si>
+  <si>
+    <t>Estrategia de medición para el seguimiento y priorización de proyectos, para el aseguramiento de medición de madurez métodologica</t>
+  </si>
+  <si>
+    <t>%OneDrive%\Documentos - Equipo Lean-BIM\LEAN\05. Seguimiento proyectos</t>
+  </si>
+  <si>
+    <t>2.3.1.</t>
+  </si>
+  <si>
+    <t>2..3.</t>
+  </si>
+  <si>
+    <t>2.3.1. Planteamiento estrategia de seguimiento</t>
+  </si>
+  <si>
+    <t>2.3. Estrategia de seguimiento a proyectos</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Documento de definición de estrategia a usar, documento de deficit</t>
   </si>
 </sst>
 </file>
@@ -536,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H35" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H35" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C69B9EC1-A843-494C-8CE9-F9A09CA3921B}" name="Tabla13" displayName="Tabla13" ref="A1:H37" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H37" xr:uid="{4DBE90D6-0208-4159-B479-17B20016F364}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{09591468-9C45-4B9E-A699-8D7D5DE3C0D4}" name="ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F1BFFF13-B24C-4D9F-889F-187D5656338D}" name="ID_Padre" dataDxfId="6"/>
@@ -869,21 +896,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA87A-0F01-4FBC-8483-64ED0DE34BC3}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="155" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="254.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="254.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,7 +954,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,7 +974,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -967,7 +994,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -991,7 +1018,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1038,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1062,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1082,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1106,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1099,7 +1126,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1146,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1137,7 +1164,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1184,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -1181,7 +1208,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1228,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1221,7 +1248,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1245,95 +1272,93 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>49</v>
@@ -1342,71 +1367,77 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1415,38 +1446,40 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1455,101 +1488,97 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
@@ -1558,44 +1587,42 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
@@ -1604,40 +1631,86 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1645,16 +1718,16 @@
     <hyperlink ref="G9" r:id="rId2" xr:uid="{0BEA8249-A74A-49EA-8EC8-96F5029FC733}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{69B2A7D3-90B8-4A1C-BF30-866D63FDCE26}"/>
     <hyperlink ref="G17" r:id="rId4" xr:uid="{6C869BAB-40B9-46FB-B35A-559A43244661}"/>
-    <hyperlink ref="G20" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
-    <hyperlink ref="G21" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
-    <hyperlink ref="G22" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
-    <hyperlink ref="G28" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
-    <hyperlink ref="G33" r:id="rId10" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
-    <hyperlink ref="G29" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
-    <hyperlink ref="G31" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{53567C18-720D-4540-B295-7A729C68A9AD}"/>
+    <hyperlink ref="G23" r:id="rId6" display="https://console.cloud.google.com/bigquery?project=modelomarval&amp;ws=!1m17!1m6!12m5!1m3!1smodelomarval!2sus-central1!3sd30be79c-ad20-41eb-8952-d95e9152ecc9!2e1!1m4!4m3!1smodelomarval!2sproyectos!3sproyectos!1m4!1m3!1smodelomarval!2sbquxjob_4c0ba819_19b09adb8ee!3sus-east1" xr:uid="{8B51FB56-7934-452E-8F3B-528F5B2C6E20}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{918B8973-51E3-4606-AB5E-8F499095DD6C}"/>
+    <hyperlink ref="G26" r:id="rId8" xr:uid="{49F1E364-2552-4FF7-8D9A-5827E001F395}"/>
+    <hyperlink ref="G30" r:id="rId9" xr:uid="{B578872E-8236-43FA-9CE4-9AE1A40E3B21}"/>
+    <hyperlink ref="G35" r:id="rId10" xr:uid="{145CF4BB-4686-4A38-B24B-38ECF168AF5B}"/>
+    <hyperlink ref="G31" r:id="rId11" xr:uid="{F443384C-04A7-4A61-A6B3-A93D2240BD1E}"/>
+    <hyperlink ref="G33" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
     <hyperlink ref="G14" r:id="rId13" xr:uid="{54A8AECD-CF71-4D7C-9958-1AACAC5E3379}"/>
-    <hyperlink ref="G35" r:id="rId14" xr:uid="{01716D3A-426D-4812-81DA-3CDF4471CA2D}"/>
+    <hyperlink ref="G37" r:id="rId14" xr:uid="{01716D3A-426D-4812-81DA-3CDF4471CA2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1664,26 +1737,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1944,26 +1997,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1980,4 +2034,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Directorio.xlsx
+++ b/data/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/13. Cloud Data/2. Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE3DD6A-C453-4136-84AD-5265AEE21320}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{E953BF11-6BC8-4872-B8EC-7C96E7F0B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36652D4F-7EB5-48F7-AA7A-E19041059C61}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC01CE05-0E98-48BA-AFDF-DDA4B73FB32C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -389,9 +389,6 @@
     <t>2.3.1.</t>
   </si>
   <si>
-    <t>2..3.</t>
-  </si>
-  <si>
     <t>2.3.1. Planteamiento estrategia de seguimiento</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>Documento de definición de estrategia a usar, documento de deficit</t>
+  </si>
+  <si>
+    <t>https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos%20compartidos/LEAN/05.%20Seguimiento%20proyectos/19.%20Estrategia%20de%20seguimiento/05.19.01.%20Planteamiento%20estrategia%20de%20seguimiento.docx?web=1</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1301,21 +1301,23 @@
         <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1728,15 +1730,36 @@
     <hyperlink ref="G33" r:id="rId12" location="scrollTo=3ZOFGD83yd0f" xr:uid="{8CF49A2B-6BB3-4D84-BBE2-7E2256611071}"/>
     <hyperlink ref="G14" r:id="rId13" xr:uid="{54A8AECD-CF71-4D7C-9958-1AACAC5E3379}"/>
     <hyperlink ref="G37" r:id="rId14" xr:uid="{01716D3A-426D-4812-81DA-3CDF4471CA2D}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{33DF40B5-547F-4FBA-80C6-D3358A585D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d1ee42ddbbb6d7cc2b18ad925fc7bcf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f2f43c6d7a3a8b75d8e99a23581904c" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -1997,27 +2020,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D39321F-A7FA-441B-84C0-F882E46444C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2034,23 +2056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFAC384-35CE-4C5A-A492-8D680476F49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6575ACB0-218C-4253-AC96-FD91EE9B46D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
-    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>